--- a/biology/Zoologie/Boophis_feonnyala/Boophis_feonnyala.xlsx
+++ b/biology/Zoologie/Boophis_feonnyala/Boophis_feonnyala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis feonnyala est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis feonnyala est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre à environ 900 m d'altitude dans les environs d'Andasibe[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre à environ 900 m d'altitude dans les environs d'Andasibe,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boophis feonnyala mesure environ 25 mm pour les mâles. Son dos est beige, certains spécimens présentant de très petites taches sombres et rougeâtres, d'autres étant entièrement beiges. Son ventre est blanc dans la partie centrale et gris-beige au niveau des flancs[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boophis feonnyala mesure environ 25 mm pour les mâles. Son dos est beige, certains spécimens présentant de très petites taches sombres et rougeâtres, d'autres étant entièrement beiges. Son ventre est blanc dans la partie centrale et gris-beige au niveau des flancs.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, dérivé du malgache feon'ny ala, « la voix de la forêt », lui a été donné en référence au fait qu'elle a été découverte par son chant dans le lac artificiel de l'hôtel Feon'ny ala où l'équipe des collecteurs déjeunait[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, dérivé du malgache feon'ny ala, « la voix de la forêt », lui a été donné en référence au fait qu'elle a été découverte par son chant dans le lac artificiel de l'hôtel Feon'ny ala où l'équipe des collecteurs déjeunait.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glaw, Vences, Andreone &amp; Vallan, 2001 : Revision of the Boophis majori group (Amphibia: Mantellidae) from Madagascar, with descriptions of five new species. Zoological Journal of the Linnean Society, vol. 133, p. 495-529 (texte intégral).</t>
         </is>
